--- a/figs/table_variablesMinMax.xlsx
+++ b/figs/table_variablesMinMax.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philipp/Documents/GitHub/hRELSA_application/figs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD6A10A3-B0AC-8B46-A1F2-DD2CFE223D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6D8747-08FF-284A-9C1F-694D9E0DF507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="740" windowWidth="28240" windowHeight="16880" xr2:uid="{60B86393-7F43-2F48-BD28-0111A06DB81A}"/>
+    <workbookView xWindow="580" yWindow="740" windowWidth="28240" windowHeight="16780" xr2:uid="{60B86393-7F43-2F48-BD28-0111A06DB81A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -80,30 +80,6 @@
     <t>35/min</t>
   </si>
   <si>
-    <t>24mmHg</t>
-  </si>
-  <si>
-    <t>196mmHg</t>
-  </si>
-  <si>
-    <t>57.88mmHg</t>
-  </si>
-  <si>
-    <t>57mmHg</t>
-  </si>
-  <si>
-    <t>52bpm</t>
-  </si>
-  <si>
-    <t>232bpm</t>
-  </si>
-  <si>
-    <t>123.5bpm</t>
-  </si>
-  <si>
-    <t>123bpm</t>
-  </si>
-  <si>
     <t>34.1°C</t>
   </si>
   <si>
@@ -114,13 +90,37 @@
   </si>
   <si>
     <t>37°C</t>
+  </si>
+  <si>
+    <t>52 bpm</t>
+  </si>
+  <si>
+    <t>232 bpm</t>
+  </si>
+  <si>
+    <t>123.5 bpm</t>
+  </si>
+  <si>
+    <t>123 bpm</t>
+  </si>
+  <si>
+    <t>24 mmHg</t>
+  </si>
+  <si>
+    <t>196 mmHg</t>
+  </si>
+  <si>
+    <t>57.88 mmHg</t>
+  </si>
+  <si>
+    <t>57 mmHg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -131,6 +131,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -157,10 +164,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -475,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{214133E8-94E3-2F4A-843E-5E8D7B7DFB19}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B9" sqref="B9:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -488,7 +496,7 @@
     <col min="10" max="10" width="46.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -519,13 +527,13 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -539,13 +547,13 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -559,13 +567,13 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -579,11 +587,14 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
